--- a/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
+++ b/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805FE926-1CD1-419D-9A87-35C4CD3F7A0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D36547F-FC69-414C-820A-7FD69DF84EB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22464" windowHeight="7596" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>admin</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>200pagesSchoolNoteBook</t>
+  </si>
+  <si>
+    <t>192pagesSchoolNoteBook</t>
+  </si>
+  <si>
+    <t>300pagesSchoolNoteBook</t>
   </si>
 </sst>
 </file>
@@ -440,10 +446,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CC4B5D-C52B-48BC-B4A7-0431C6288133}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,6 +460,16 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
+++ b/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D36547F-FC69-414C-820A-7FD69DF84EB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E32AC4-8BDB-4FFB-9D21-BDE9AB25F99D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22464" windowHeight="7596" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16356" windowHeight="3492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>admin1</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>300pagesSchoolNoteBook</t>
+  </si>
+  <si>
+    <t>admin18</t>
   </si>
 </sst>
 </file>
@@ -373,8 +373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,7 +389,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -400,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -428,15 +428,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -448,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CC4B5D-C52B-48BC-B4A7-0431C6288133}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -459,17 +459,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
+++ b/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E32AC4-8BDB-4FFB-9D21-BDE9AB25F99D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE94594-F9B3-4400-9C1D-99BFE2B99BD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16356" windowHeight="3492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
